--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\come6\Desktop\남원시청 코딩\저상게시대 지도표시\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ok\Desktop\release v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC06001-0C84-40E4-AD7A-1C77E94931D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2483" windowWidth="28800" windowHeight="15540" xr2:uid="{0FC6AE7D-7567-4F62-B485-A25CF7AD260D}"/>
+    <workbookView xWindow="9600" yWindow="2490" windowWidth="28800" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="저단게시대" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="189">
   <si>
     <t>순번</t>
   </si>
@@ -243,58 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건축과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.30.까지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건설과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.20까지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민원있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정당현수막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건축과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건설과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마커번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부영A 6차 앞(우체국 건너편)</t>
   </si>
   <si>
@@ -386,34 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여섯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일곱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여덟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GS26 오투그란데점 앞</t>
   </si>
   <si>
@@ -441,47 +356,371 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>특1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특1-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불법현수막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어딘가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 01. 01. ~ 2025. 12. 31.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정당현수막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다섯다섯광고사</t>
+    <t>신세계광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원과(6142)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 30. ~ 2025. 05. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별공시지가 이의신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조은광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광과(5706)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 28. ~ 2025. 05. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피오리움 달빛정원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나눔광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정지원과(6064)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙경찰학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙경찰학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남원세무서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남원세무서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 01. ~ 2025. 05. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합소득세&amp;근로장려금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합소득세&amp;근로장려금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화예술과(6171)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 05. 26.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 05. 26.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가야고분군 홍보관 개관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘푸른광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘푸른광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화예술과(6171)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가야고분군 홍보관 개관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정지원과(6064)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 04. ~ 2025. 06. 14.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월광포차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 26. ~ 2025. 05. 06.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘향제(백일장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광과(5706)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 28. ~ 2025. 05. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피오리움 달빛정원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별공시지가 이의신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 05. 25.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 간이역에서(무용공연)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획예산과(6228)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 18. ~ 2025. 05. 02.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시정발전 제안공모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마인드광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마인드광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 15. ~ 2025. 06. 03.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표로 화합하는 대한민국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이룸디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 05. 18.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남원시장배 시민 등반대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원과(6142)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조은광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표로 화합하는 대한민국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 05. 25.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정지원과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 10. ~ 2025. 05. 26.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진실은 사라지지 않는다(인권강의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진실은 사라지지 않는다(인권강의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이룸디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 15. ~ 2025. 06. 03.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나눔광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 25. ~ 2025. 05. 06.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 05. 15.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 05. 15.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향교지구 공영주차장 준공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남원시장배 시민 등반대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 04. ~ 2025. 06. 14.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 04. ~ 2025. 05. 20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아카데미-잘쓰고모으는부자공식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육체육과(5614)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 05. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달빛체조 광장 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장나염광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 10. ~ 2025. 05. 26.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘향제(문화예술제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건소(7927)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐렴구균 23기 무료 접종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노암동(4777)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 18. ~ 2025. 05. 06.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘향제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가대표선발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업교육생모집(수요조사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 30. ~ 2025. 05. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 간이역에서(무용공연)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획예산과(6228)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해달맞이 생활체육 교실</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +736,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -506,7 +754,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -524,43 +772,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -609,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,37 +830,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,40 +1158,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00D7AB0-978F-406C-B154-DD11BE17418E}">
-  <dimension ref="A1:K122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25.4375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9" style="1"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,10 +1206,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -1027,13 +1224,13 @@
         <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1046,7 +1243,7 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="1">
@@ -1056,19 +1253,19 @@
         <v>127.41030000000001</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+        <v>103</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1078,32 +1275,32 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="3">
-        <v>35.424771999999997</v>
-      </c>
-      <c r="G4" s="3">
-        <v>127.409654</v>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1">
+        <v>35.424599999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>127.40940000000001</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="K4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1113,23 +1310,32 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="3">
-        <v>35.424771999999997</v>
-      </c>
-      <c r="G5" s="3">
-        <v>127.409654</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="1">
+        <v>35.424599999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>127.40940000000001</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1139,32 +1345,26 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="3">
-        <v>35.424500000000002</v>
-      </c>
-      <c r="G6" s="3">
-        <v>127.40940000000001</v>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1">
+        <v>35.424550000000004</v>
+      </c>
+      <c r="G6" s="1">
+        <v>127.40935</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1174,29 +1374,32 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="3">
-        <v>35.424500000000002</v>
-      </c>
-      <c r="G7" s="3">
-        <v>127.40940000000001</v>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1">
+        <v>35.424550000000004</v>
+      </c>
+      <c r="G7" s="1">
+        <v>127.40935</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
+        <v>116</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1206,23 +1409,32 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="3">
-        <v>35.424300000000002</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1">
+        <v>35.424460000000003</v>
+      </c>
+      <c r="G8" s="1">
         <v>127.4093</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="H8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1232,23 +1444,20 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="3">
-        <v>35.424300000000002</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1">
+        <v>35.424460000000003</v>
+      </c>
+      <c r="G9" s="1">
         <v>127.4093</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1261,7 +1470,7 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="1">
@@ -1271,19 +1480,19 @@
         <v>127.40309999999999</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
+        <v>125</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1296,17 +1505,23 @@
       <c r="D11" s="1">
         <v>6</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>6</v>
       </c>
       <c r="F11" s="1">
         <v>35.427300000000002</v>
       </c>
       <c r="G11" s="1">
-        <v>127.4033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
+        <v>127.40325</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1319,7 +1534,7 @@
       <c r="D12" s="1">
         <v>7</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>7</v>
       </c>
       <c r="F12" s="1">
@@ -1328,8 +1543,17 @@
       <c r="G12" s="1">
         <v>127.40260000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="I12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1342,17 +1566,17 @@
       <c r="D13" s="1">
         <v>8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>35.426299999999998</v>
+        <v>35.426600000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>127.4004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
+        <v>127.40105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1365,17 +1589,17 @@
       <c r="D14" s="1">
         <v>9</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>35.426000000000002</v>
+        <v>35.426200000000001</v>
       </c>
       <c r="G14" s="1">
-        <v>127.4006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
+        <v>127.4008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1388,17 +1612,26 @@
       <c r="D15" s="1">
         <v>10</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>10</v>
       </c>
       <c r="F15" s="1">
-        <v>35.4208</v>
+        <v>35.420900000000003</v>
       </c>
       <c r="G15" s="1">
-        <v>127.4028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
+        <v>127.40260000000001</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1411,17 +1644,29 @@
       <c r="D16" s="1">
         <v>11</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>11</v>
       </c>
       <c r="F16" s="1">
-        <v>35.420699999999997</v>
+        <v>35.4208</v>
       </c>
       <c r="G16" s="1">
-        <v>127.4029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.4027</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1434,17 +1679,17 @@
       <c r="D17" s="1">
         <v>12</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>12</v>
       </c>
       <c r="F17" s="1">
         <v>35.418999999999997</v>
       </c>
       <c r="G17" s="1">
-        <v>127.4046</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.4045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1457,17 +1702,29 @@
       <c r="D18" s="1">
         <v>13</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>13</v>
       </c>
       <c r="F18" s="1">
         <v>35.418900000000001</v>
       </c>
       <c r="G18" s="1">
-        <v>127.4045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.40434999999999</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1480,17 +1737,17 @@
       <c r="D19" s="1">
         <v>14</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>14</v>
       </c>
       <c r="F19" s="1">
-        <v>35.424700000000001</v>
+        <v>35.424550000000004</v>
       </c>
       <c r="G19" s="1">
-        <v>127.39709999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1503,17 +1760,29 @@
       <c r="D20" s="1">
         <v>15</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>15</v>
       </c>
       <c r="F20" s="1">
-        <v>35.424199999999999</v>
+        <v>35.424399999999999</v>
       </c>
       <c r="G20" s="1">
-        <v>127.3969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3972</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1526,17 +1795,17 @@
       <c r="D21" s="1">
         <v>16</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>16</v>
       </c>
       <c r="F21" s="1">
-        <v>35.422499999999999</v>
+        <v>35.424050000000001</v>
       </c>
       <c r="G21" s="1">
-        <v>127.39230000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1549,17 +1818,26 @@
       <c r="D22" s="1">
         <v>17</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <v>17</v>
       </c>
       <c r="F22" s="1">
-        <v>35.423200000000001</v>
+        <v>35.423250000000003</v>
       </c>
       <c r="G22" s="1">
         <v>127.3942</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1572,17 +1850,26 @@
       <c r="D23" s="1">
         <v>18</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="1">
         <v>35.422699999999999</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>127.3925</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1595,17 +1882,29 @@
       <c r="D24" s="1">
         <v>18</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="1">
         <v>35.422699999999999</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>127.3925</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1618,17 +1917,26 @@
       <c r="D25" s="1">
         <v>19</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="3">
-        <v>35.422600000000003</v>
-      </c>
-      <c r="G25" s="3">
-        <v>127.39239999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="E25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="1">
+        <v>35.422649999999997</v>
+      </c>
+      <c r="G25" s="1">
+        <v>127.39245</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1641,17 +1949,17 @@
       <c r="D26" s="1">
         <v>19</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="3">
-        <v>35.422600000000003</v>
-      </c>
-      <c r="G26" s="3">
-        <v>127.39239999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="E26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1">
+        <v>35.422649999999997</v>
+      </c>
+      <c r="G26" s="1">
+        <v>127.39245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1664,17 +1972,29 @@
       <c r="D27" s="1">
         <v>20</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="3">
-        <v>35.422400000000003</v>
-      </c>
-      <c r="G27" s="3">
-        <v>127.3921</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="E27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="1">
+        <v>35.42257</v>
+      </c>
+      <c r="G27" s="1">
+        <v>127.39230000000001</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1687,17 +2007,17 @@
       <c r="D28" s="1">
         <v>20</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="3">
-        <v>35.422400000000003</v>
-      </c>
-      <c r="G28" s="3">
-        <v>127.3921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="E28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="1">
+        <v>35.42257</v>
+      </c>
+      <c r="G28" s="1">
+        <v>127.39230000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1710,17 +2030,17 @@
       <c r="D29" s="1">
         <v>21</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="3">
         <v>21</v>
       </c>
       <c r="F29" s="1">
-        <v>35.421500000000002</v>
+        <v>35.421199999999999</v>
       </c>
       <c r="G29" s="1">
-        <v>127.3938</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1733,17 +2053,29 @@
       <c r="D30" s="1">
         <v>22</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="3">
         <v>22</v>
       </c>
       <c r="F30" s="1">
-        <v>35.418599999999998</v>
+        <v>35.418550000000003</v>
       </c>
       <c r="G30" s="1">
-        <v>127.39709999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.39713</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1756,17 +2088,29 @@
       <c r="D31" s="1">
         <v>23</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="3">
         <v>23</v>
       </c>
       <c r="F31" s="1">
-        <v>35.418300000000002</v>
+        <v>35.418100000000003</v>
       </c>
       <c r="G31" s="1">
-        <v>127.3974</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.39749999999999</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1779,17 +2123,29 @@
       <c r="D32" s="1">
         <v>24</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="3">
         <v>24</v>
       </c>
       <c r="F32" s="1">
         <v>35.417900000000003</v>
       </c>
       <c r="G32" s="1">
-        <v>127.3972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3974</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1802,17 +2158,26 @@
       <c r="D33" s="1">
         <v>25</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="3">
         <v>25</v>
       </c>
       <c r="F33" s="1">
-        <v>35.417400000000001</v>
+        <v>35.417499999999997</v>
       </c>
       <c r="G33" s="1">
-        <v>127.3977</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3978</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1825,22 +2190,22 @@
       <c r="D34" s="1">
         <v>26</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="3">
         <v>26</v>
       </c>
       <c r="F34" s="1">
-        <v>35.417400000000001</v>
+        <v>35.417299999999997</v>
       </c>
       <c r="G34" s="1">
         <v>127.39830000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1848,17 +2213,17 @@
       <c r="D35" s="1">
         <v>27</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="3">
         <v>27</v>
       </c>
       <c r="F35" s="1">
-        <v>35.417299999999997</v>
+        <v>35.417250000000003</v>
       </c>
       <c r="G35" s="1">
-        <v>127.39830000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.39834999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1871,17 +2236,29 @@
       <c r="D36" s="1">
         <v>28</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="3">
         <v>28</v>
       </c>
       <c r="F36" s="1">
-        <v>35.4161</v>
+        <v>35.416089999999997</v>
       </c>
       <c r="G36" s="1">
-        <v>127.39960000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.39945</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1894,17 +2271,29 @@
       <c r="D37" s="1">
         <v>29</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="3">
-        <v>35.415999999999997</v>
-      </c>
-      <c r="G37" s="3">
-        <v>127.3995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="E37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="1">
+        <v>35.416049999999998</v>
+      </c>
+      <c r="G37" s="1">
+        <v>127.3994</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1917,63 +2306,93 @@
       <c r="D38" s="1">
         <v>29</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="3">
-        <v>35.415999999999997</v>
-      </c>
-      <c r="G38" s="3">
-        <v>127.3995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="E38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="1">
+        <v>35.416049999999998</v>
+      </c>
+      <c r="G38" s="1">
+        <v>127.3994</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>30</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="3">
-        <v>35.415900000000001</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="E39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="1">
+        <v>35.415999999999997</v>
+      </c>
+      <c r="G39" s="1">
         <v>127.3993</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="1">
         <v>30</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="3">
-        <v>35.415900000000001</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="E40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="1">
+        <v>35.415999999999997</v>
+      </c>
+      <c r="G40" s="1">
         <v>127.3993</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1986,17 +2405,29 @@
       <c r="D41" s="1">
         <v>31</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="3">
         <v>31</v>
       </c>
       <c r="F41" s="1">
-        <v>35.415900000000001</v>
+        <v>35.415950000000002</v>
       </c>
       <c r="G41" s="1">
-        <v>127.39919999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.39924999999999</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2009,17 +2440,23 @@
       <c r="D42" s="1">
         <v>32</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="3">
         <v>32</v>
       </c>
       <c r="F42" s="1">
-        <v>35.416499999999999</v>
+        <v>35.416580000000003</v>
       </c>
       <c r="G42" s="1">
-        <v>127.3955</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.39555</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2032,17 +2469,29 @@
       <c r="D43" s="1">
         <v>33</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="3">
         <v>33</v>
       </c>
       <c r="F43" s="1">
-        <v>35.416400000000003</v>
+        <v>35.416539999999998</v>
       </c>
       <c r="G43" s="1">
-        <v>127.3954</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.39551</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2055,7 +2504,7 @@
       <c r="D44" s="1">
         <v>34</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="3">
         <v>34</v>
       </c>
       <c r="F44" s="1">
@@ -2064,8 +2513,17 @@
       <c r="G44" s="1">
         <v>127.3952</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2078,17 +2536,29 @@
       <c r="D45" s="1">
         <v>35</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="3">
         <v>35</v>
       </c>
       <c r="F45" s="1">
-        <v>35.416899999999998</v>
+        <v>35.416969999999999</v>
       </c>
       <c r="G45" s="1">
-        <v>127.3892</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38915</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2101,17 +2571,29 @@
       <c r="D46" s="1">
         <v>36</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="3">
         <v>36</v>
       </c>
       <c r="F46" s="1">
-        <v>35.415799999999997</v>
+        <v>35.415550000000003</v>
       </c>
       <c r="G46" s="1">
-        <v>127.3899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38996</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2124,17 +2606,29 @@
       <c r="D47" s="1">
         <v>37</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="3">
         <v>37</v>
       </c>
       <c r="F47" s="1">
-        <v>35.415599999999998</v>
+        <v>35.415399999999998</v>
       </c>
       <c r="G47" s="1">
         <v>127.3901</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2147,17 +2641,29 @@
       <c r="D48" s="1">
         <v>38</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="3">
         <v>38</v>
       </c>
       <c r="F48" s="1">
-        <v>35.411499999999997</v>
+        <v>35.411479999999997</v>
       </c>
       <c r="G48" s="1">
-        <v>127.3939</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.39382000000001</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2170,17 +2676,29 @@
       <c r="D49" s="1">
         <v>39</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="3">
         <v>39</v>
       </c>
       <c r="F49" s="1">
-        <v>35.411000000000001</v>
+        <v>35.411149999999999</v>
       </c>
       <c r="G49" s="1">
         <v>127.3934</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2193,17 +2711,17 @@
       <c r="D50" s="1">
         <v>40</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="3">
         <v>40</v>
       </c>
       <c r="F50" s="1">
-        <v>35.409399999999998</v>
+        <v>35.409379999999999</v>
       </c>
       <c r="G50" s="1">
-        <v>127.3913</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.39117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2216,30 +2734,39 @@
       <c r="D51" s="1">
         <v>41</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="3">
         <v>41</v>
       </c>
       <c r="F51" s="1">
-        <v>35.409100000000002</v>
+        <v>35.409120000000001</v>
       </c>
       <c r="G51" s="1">
-        <v>127.3908</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3907</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1">
         <v>42</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="3">
         <v>42</v>
       </c>
       <c r="F52" s="1">
@@ -2248,31 +2775,46 @@
       <c r="G52" s="1">
         <v>127.38339999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1">
         <v>43</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="3">
         <v>43</v>
       </c>
       <c r="F53" s="1">
-        <v>35.418700000000001</v>
+        <v>35.41874</v>
       </c>
       <c r="G53" s="1">
-        <v>127.3835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38343999999999</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2285,7 +2827,7 @@
       <c r="D54" s="1">
         <v>44</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="3">
         <v>44</v>
       </c>
       <c r="F54" s="1">
@@ -2294,54 +2836,87 @@
       <c r="G54" s="1">
         <v>127.3847</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <v>45</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="1">
         <v>35.4163</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="1">
         <v>127.38500000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="1">
         <v>45</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="1">
         <v>35.4163</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="1">
         <v>127.38500000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2354,17 +2929,26 @@
       <c r="D57" s="1">
         <v>46</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="3">
         <v>46</v>
       </c>
       <c r="F57" s="1">
-        <v>35.418599999999998</v>
+        <v>35.418669999999999</v>
       </c>
       <c r="G57" s="1">
-        <v>127.3807</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38074</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2377,17 +2961,26 @@
       <c r="D58" s="1">
         <v>47</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="3">
         <v>47</v>
       </c>
       <c r="F58" s="1">
-        <v>35.418500000000002</v>
+        <v>35.418550000000003</v>
       </c>
       <c r="G58" s="1">
         <v>127.3805</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2400,17 +2993,29 @@
       <c r="D59" s="1">
         <v>48</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="3">
         <v>48</v>
       </c>
       <c r="F59" s="1">
-        <v>35.412999999999997</v>
+        <v>35.412730000000003</v>
       </c>
       <c r="G59" s="1">
-        <v>127.38249999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3822</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2423,17 +3028,26 @@
       <c r="D60" s="1">
         <v>49</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="3">
         <v>49</v>
       </c>
       <c r="F60" s="1">
-        <v>35.4129</v>
+        <v>35.412500000000001</v>
       </c>
       <c r="G60" s="1">
-        <v>127.3824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38182</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2446,316 +3060,433 @@
       <c r="D61" s="1">
         <v>50</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="3">
         <v>50</v>
       </c>
       <c r="F61" s="1">
-        <v>35.412799999999997</v>
+        <v>35.412300000000002</v>
       </c>
       <c r="G61" s="1">
-        <v>127.3823</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3815</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="1">
         <v>1</v>
       </c>
       <c r="D62" s="1">
         <v>51</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="3">
         <v>51</v>
       </c>
       <c r="F62" s="1">
         <v>35.4099</v>
       </c>
       <c r="G62" s="1">
-        <v>127.3828</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3827</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="1">
         <v>1</v>
       </c>
       <c r="D63" s="1">
         <v>52</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="3">
         <v>52</v>
       </c>
       <c r="F63" s="1">
-        <v>35.409799999999997</v>
+        <v>35.409829999999999</v>
       </c>
       <c r="G63" s="1">
         <v>127.3827</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="B64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1">
         <v>1</v>
       </c>
       <c r="D64" s="1">
         <v>53</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="3">
         <v>53</v>
       </c>
       <c r="F64" s="1">
-        <v>35.406199999999998</v>
+        <v>35.406080000000003</v>
       </c>
       <c r="G64" s="1">
-        <v>127.38679999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+        <v>127.38659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="5">
+      <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1">
         <v>1</v>
       </c>
       <c r="D65" s="1">
         <v>54</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="3">
         <v>54</v>
       </c>
       <c r="F65" s="1">
-        <v>35.406100000000002</v>
+        <v>35.406019999999998</v>
       </c>
       <c r="G65" s="1">
-        <v>127.3867</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38655</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>1</v>
       </c>
       <c r="D66" s="1">
         <v>55</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="3">
         <v>55</v>
       </c>
       <c r="F66" s="1">
         <v>35.405700000000003</v>
       </c>
       <c r="G66" s="1">
-        <v>127.38630000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38625999999999</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="1">
         <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>56</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="3">
         <v>56</v>
       </c>
       <c r="F67" s="1">
-        <v>35.4056</v>
+        <v>35.405630000000002</v>
       </c>
       <c r="G67" s="1">
-        <v>127.3862</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
+        <v>127.38618</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="3">
+      <c r="B68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="1">
         <v>1</v>
       </c>
       <c r="D68" s="1">
         <v>57</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="3">
         <v>57</v>
       </c>
       <c r="F68" s="1">
-        <v>35.405099999999997</v>
+        <v>35.405149999999999</v>
       </c>
       <c r="G68" s="1">
-        <v>127.3857</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38567</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="5">
+      <c r="B69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="1">
         <v>1</v>
       </c>
       <c r="D69" s="1">
         <v>58</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="3">
         <v>58</v>
       </c>
       <c r="F69" s="1">
         <v>35.405099999999997</v>
       </c>
       <c r="G69" s="1">
-        <v>127.3857</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3856</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <v>1</v>
       </c>
       <c r="D70" s="1">
         <v>59</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="3">
         <v>59</v>
       </c>
       <c r="F70" s="1">
         <v>35.403599999999997</v>
       </c>
       <c r="G70" s="1">
-        <v>127.38630000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38621999999999</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="1">
         <v>60</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="3">
         <v>60</v>
       </c>
       <c r="F71" s="1">
-        <v>35.403500000000001</v>
+        <v>35.40354</v>
       </c>
       <c r="G71" s="1">
-        <v>127.3862</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38618</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" s="1">
         <v>61</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="3">
         <v>61</v>
       </c>
       <c r="F72" s="1">
-        <v>35.403500000000001</v>
+        <v>35.403480000000002</v>
       </c>
       <c r="G72" s="1">
-        <v>127.3862</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38612999999999</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>62</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="3">
         <v>62</v>
       </c>
       <c r="F73" s="1">
-        <v>35.4039</v>
+        <v>35.403599999999997</v>
       </c>
       <c r="G73" s="1">
         <v>127.38679999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>63</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="3">
         <v>63</v>
       </c>
       <c r="F74" s="1">
-        <v>35.403799999999997</v>
+        <v>35.403550000000003</v>
       </c>
       <c r="G74" s="1">
-        <v>127.3867</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38685</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2768,17 +3499,17 @@
       <c r="D75" s="1">
         <v>64</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="3">
         <v>64</v>
       </c>
       <c r="F75" s="1">
-        <v>35.414499999999997</v>
+        <v>35.414439999999999</v>
       </c>
       <c r="G75" s="1">
-        <v>127.3766</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2791,247 +3522,328 @@
       <c r="D76" s="1">
         <v>65</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="3">
         <v>65</v>
       </c>
       <c r="F76" s="1">
-        <v>35.414000000000001</v>
+        <v>35.414099999999998</v>
       </c>
       <c r="G76" s="1">
-        <v>127.3766</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3762</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
         <v>66</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="3">
         <v>66</v>
       </c>
       <c r="F77" s="1">
-        <v>35.401499999999999</v>
+        <v>35.401249999999997</v>
       </c>
       <c r="G77" s="1">
-        <v>127.3784</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37805</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="1">
         <v>1</v>
       </c>
       <c r="D78" s="1">
         <v>67</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="3">
         <v>67</v>
       </c>
       <c r="F78" s="1">
-        <v>35.401499999999999</v>
+        <v>35.401299999999999</v>
       </c>
       <c r="G78" s="1">
-        <v>127.3785</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37815999999999</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="1">
         <v>1</v>
       </c>
       <c r="D79" s="1">
         <v>68</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="3">
         <v>68</v>
       </c>
       <c r="F79" s="1">
-        <v>35.400599999999997</v>
+        <v>35.400660000000002</v>
       </c>
       <c r="G79" s="1">
         <v>127.37730000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="1">
         <v>69</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="3">
         <v>69</v>
       </c>
       <c r="F80" s="1">
-        <v>35.400599999999997</v>
+        <v>35.400620000000004</v>
       </c>
       <c r="G80" s="1">
-        <v>127.3771</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3772</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="1">
         <v>1</v>
       </c>
       <c r="D81" s="1">
         <v>70</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="3">
         <v>70</v>
       </c>
       <c r="F81" s="1">
-        <v>35.401800000000001</v>
+        <v>35.402200000000001</v>
       </c>
       <c r="G81" s="1">
-        <v>127.38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3805</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="1">
         <v>1</v>
       </c>
       <c r="D82" s="1">
         <v>71</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="3">
         <v>71</v>
       </c>
       <c r="F82" s="1">
-        <v>35.401800000000001</v>
+        <v>35.402149999999999</v>
       </c>
       <c r="G82" s="1">
-        <v>127.37990000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38039000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="1">
         <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>72</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="3">
         <v>72</v>
       </c>
       <c r="F83" s="1">
-        <v>35.4</v>
+        <v>35.399880000000003</v>
       </c>
       <c r="G83" s="1">
-        <v>127.38030000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38012000000001</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="1">
         <v>1</v>
       </c>
       <c r="D84" s="1">
         <v>73</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="3">
         <v>73</v>
       </c>
       <c r="F84" s="1">
-        <v>35.399900000000002</v>
+        <v>35.399850000000001</v>
       </c>
       <c r="G84" s="1">
-        <v>127.3802</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38001</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="1">
         <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>74</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="3">
         <v>74</v>
       </c>
       <c r="F85" s="1">
-        <v>35.399700000000003</v>
+        <v>35.3996</v>
       </c>
       <c r="G85" s="1">
-        <v>127.3798</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37962</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="D86" s="1">
         <v>75</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="3">
         <v>75</v>
       </c>
       <c r="F86" s="1">
-        <v>35.399700000000003</v>
+        <v>35.399560000000001</v>
       </c>
       <c r="G86" s="1">
-        <v>127.3798</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37952</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3044,7 +3856,7 @@
       <c r="D87" s="1">
         <v>76</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="3">
         <v>76</v>
       </c>
       <c r="F87" s="1">
@@ -3053,8 +3865,20 @@
       <c r="G87" s="1">
         <v>127.3792</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3067,145 +3891,175 @@
       <c r="D88" s="1">
         <v>77</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="3">
         <v>77</v>
       </c>
       <c r="F88" s="1">
-        <v>35.397500000000001</v>
+        <v>35.397150000000003</v>
       </c>
       <c r="G88" s="1">
-        <v>127.37990000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.38005</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="1">
         <v>78</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="3">
         <v>78</v>
       </c>
       <c r="F89" s="1">
-        <v>35.4133</v>
+        <v>35.413469999999997</v>
       </c>
       <c r="G89" s="1">
-        <v>127.37309999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3734</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" s="1">
         <v>79</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="3">
         <v>79</v>
       </c>
       <c r="F90" s="1">
-        <v>35.413200000000003</v>
+        <v>35.413449999999997</v>
       </c>
       <c r="G90" s="1">
-        <v>127.3729</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3733</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="1">
         <v>80</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="3">
         <v>80</v>
       </c>
       <c r="F91" s="1">
-        <v>35.413200000000003</v>
+        <v>35.413429999999998</v>
       </c>
       <c r="G91" s="1">
-        <v>127.37269999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37318</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="1">
         <v>81</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="3">
         <v>81</v>
       </c>
       <c r="F92" s="1">
-        <v>35.413200000000003</v>
+        <v>35.4133</v>
       </c>
       <c r="G92" s="1">
-        <v>127.3712</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37161</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="1">
         <v>82</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="3">
         <v>82</v>
       </c>
       <c r="F93" s="1">
-        <v>35.4131</v>
+        <v>35.41328</v>
       </c>
       <c r="G93" s="1">
-        <v>127.3711</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="1">
         <v>1</v>
       </c>
       <c r="D94" s="1">
         <v>83</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="3">
         <v>83</v>
       </c>
       <c r="F94" s="1">
@@ -3214,31 +4068,52 @@
       <c r="G94" s="1">
         <v>127.3741</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="1">
         <v>1</v>
       </c>
       <c r="D95" s="1">
         <v>84</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="3">
         <v>84</v>
       </c>
       <c r="F95" s="1">
-        <v>35.408099999999997</v>
+        <v>35.408119999999997</v>
       </c>
       <c r="G95" s="1">
-        <v>127.374</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37405</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3251,7 +4126,7 @@
       <c r="D96" s="1">
         <v>85</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="3">
         <v>85</v>
       </c>
       <c r="F96" s="1">
@@ -3260,8 +4135,14 @@
       <c r="G96" s="1">
         <v>127.37430000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3274,7 +4155,7 @@
       <c r="D97" s="1">
         <v>86</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="3">
         <v>86</v>
       </c>
       <c r="F97" s="1">
@@ -3284,66 +4165,87 @@
         <v>127.37139999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" s="1">
         <v>87</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="3">
         <v>87</v>
       </c>
       <c r="F98" s="1">
-        <v>35.401400000000002</v>
+        <v>35.401359999999997</v>
       </c>
       <c r="G98" s="1">
         <v>127.37269999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="1">
         <v>1</v>
       </c>
       <c r="D99" s="1">
         <v>88</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="3">
         <v>88</v>
       </c>
       <c r="F99" s="1">
-        <v>35.401299999999999</v>
+        <v>35.40128</v>
       </c>
       <c r="G99" s="1">
-        <v>127.3728</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37275</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" s="1">
         <v>89</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="3">
         <v>89</v>
       </c>
       <c r="F100" s="1">
@@ -3352,100 +4254,148 @@
       <c r="G100" s="1">
         <v>127.3728</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="1">
         <v>2</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="1">
         <v>90</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F101" s="1">
+        <v>35.398800000000001</v>
+      </c>
+      <c r="G101" s="1">
+        <v>127.3738</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F101" s="3">
-        <v>35.398699999999998</v>
-      </c>
-      <c r="G101" s="3">
-        <v>127.3738</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="I101" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="1">
         <v>2</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="1">
         <v>90</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F102" s="3">
-        <v>35.398699999999998</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F102" s="1">
+        <v>35.398800000000001</v>
+      </c>
+      <c r="G102" s="1">
         <v>127.3738</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="1">
         <v>1</v>
       </c>
       <c r="D103" s="1">
         <v>91</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="3">
         <v>91</v>
       </c>
       <c r="F103" s="1">
-        <v>35.394500000000001</v>
+        <v>35.394680000000001</v>
       </c>
       <c r="G103" s="1">
-        <v>127.3771</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37708000000001</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="1">
         <v>1</v>
       </c>
       <c r="D104" s="1">
         <v>92</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="3">
         <v>92</v>
       </c>
       <c r="F104" s="1">
-        <v>35.394500000000001</v>
+        <v>35.394599999999997</v>
       </c>
       <c r="G104" s="1">
         <v>127.377</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H104" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3458,17 +4408,26 @@
       <c r="D105" s="1">
         <v>93</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="3">
         <v>93</v>
       </c>
       <c r="F105" s="1">
-        <v>35.393700000000003</v>
+        <v>35.393949999999997</v>
       </c>
       <c r="G105" s="1">
-        <v>127.376</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3763</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3481,17 +4440,26 @@
       <c r="D106" s="1">
         <v>94</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="3">
         <v>94</v>
       </c>
       <c r="F106" s="1">
-        <v>35.3932</v>
+        <v>35.392899999999997</v>
       </c>
       <c r="G106" s="1">
-        <v>127.37430000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.37396</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3504,17 +4472,26 @@
       <c r="D107" s="1">
         <v>95</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="3">
         <v>95</v>
       </c>
       <c r="F107" s="1">
         <v>35.397300000000001</v>
       </c>
       <c r="G107" s="1">
-        <v>127.3678</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.36747</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3527,17 +4504,17 @@
       <c r="D108" s="1">
         <v>96</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="3">
         <v>96</v>
       </c>
       <c r="F108" s="1">
-        <v>35.397100000000002</v>
+        <v>35.39705</v>
       </c>
       <c r="G108" s="1">
         <v>127.36620000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3550,109 +4527,151 @@
       <c r="D109" s="1">
         <v>97</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="3">
         <v>97</v>
       </c>
       <c r="F109" s="1">
-        <v>35.396599999999999</v>
+        <v>35.396650000000001</v>
       </c>
       <c r="G109" s="1">
         <v>127.364</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="1">
         <v>1</v>
       </c>
       <c r="D110" s="1">
         <v>98</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="3">
         <v>98</v>
       </c>
       <c r="F110" s="1">
         <v>35.413400000000003</v>
       </c>
       <c r="G110" s="1">
-        <v>127.36369999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.3639</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="1">
         <v>1</v>
       </c>
       <c r="D111" s="1">
         <v>99</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="3">
         <v>99</v>
       </c>
       <c r="F111" s="1">
         <v>35.413400000000003</v>
       </c>
       <c r="G111" s="1">
-        <v>127.3639</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.6">
+        <v>127.364</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="1">
         <v>2</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="1">
         <v>100</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F112" s="3">
-        <v>35.411099999999998</v>
-      </c>
-      <c r="G112" s="3">
-        <v>127.36279999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="E112" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F112" s="1">
+        <v>35.411799999999999</v>
+      </c>
+      <c r="G112" s="1">
+        <v>127.3627</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="1">
         <v>2</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="1">
         <v>100</v>
       </c>
-      <c r="E113" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F113" s="3">
-        <v>35.411099999999998</v>
-      </c>
-      <c r="G113" s="3">
-        <v>127.36279999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="E113" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F113" s="1">
+        <v>35.411799999999999</v>
+      </c>
+      <c r="G113" s="1">
+        <v>127.3627</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3665,141 +4684,93 @@
       <c r="D114" s="1">
         <v>101</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="3">
         <v>101</v>
       </c>
       <c r="F114" s="1">
-        <v>35.407400000000003</v>
+        <v>35.40737</v>
       </c>
       <c r="G114" s="1">
-        <v>127.3605</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.6">
+        <v>127.36058</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="1">
         <v>1</v>
       </c>
       <c r="D115" s="1">
         <v>102</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="3">
         <v>102</v>
       </c>
       <c r="F115" s="1">
-        <v>35.405099999999997</v>
+        <v>35.404899999999998</v>
       </c>
       <c r="G115" s="1">
-        <v>127.3625</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.6">
+        <v>127.36278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C116" s="5">
+      <c r="B116" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="1">
         <v>1</v>
       </c>
       <c r="D116" s="1">
         <v>103</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="3">
         <v>103</v>
       </c>
       <c r="F116" s="1">
-        <v>35.405099999999997</v>
+        <v>35.404899999999998</v>
       </c>
       <c r="G116" s="1">
-        <v>127.36239999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="B117" s="3"/>
-      <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="B118" s="3"/>
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="B119" s="3"/>
-      <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="B120" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F120" s="1">
-        <v>35.406999999999996</v>
-      </c>
-      <c r="G120" s="1">
-        <v>127.37</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="B121" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F121" s="1">
-        <v>35.406999999999996</v>
-      </c>
-      <c r="G121" s="1">
-        <v>127.37</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="B122" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F122" s="1">
-        <v>35.405492000000002</v>
-      </c>
-      <c r="G122" s="1">
-        <v>127.369995</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>122</v>
+        <v>127.362679</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E23:E24" twoDigitTextYear="1"/>
   </ignoredErrors>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="192">
   <si>
     <t>순번</t>
   </si>
@@ -713,6 +713,18 @@
   </si>
   <si>
     <t>해달맞이 생활체육 교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원예농협 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4764,6 +4776,29 @@
         <v>108</v>
       </c>
     </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F120" s="1">
+        <v>35.422131</v>
+      </c>
+      <c r="G120" s="1">
+        <v>127.40111899999999</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -720,11 +720,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예</t>
+    <t>예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4787,10 +4787,10 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="F120" s="1">
         <v>35.422131</v>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -724,7 +724,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정1</t>
+    <t>예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="194">
   <si>
     <t>순번</t>
   </si>
@@ -724,7 +724,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정</t>
+    <t>예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1171,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4799,6 +4807,29 @@
         <v>127.40111899999999</v>
       </c>
     </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F121" s="1">
+        <v>35.422393999999997</v>
+      </c>
+      <c r="G121" s="1">
+        <v>127.40106</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="195">
   <si>
     <t>순번</t>
   </si>
@@ -733,6 +733,10 @@
   </si>
   <si>
     <t>민원1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="G122" sqref="G122"/>
@@ -4830,6 +4834,11 @@
         <v>127.40106</v>
       </c>
     </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G122" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="201">
   <si>
     <t>순번</t>
   </si>
@@ -716,27 +716,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원예농협 사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예정1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민원1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민원1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t>예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월락초사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향교오거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타벅스 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서문로터리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육청사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4788,55 +4812,142 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>1</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F120" s="1">
-        <v>35.422131</v>
-      </c>
-      <c r="G120" s="1">
-        <v>127.40111899999999</v>
-      </c>
-    </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C121" s="1">
-        <v>1</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F121" s="1">
+        <v>35.422206000000003</v>
+      </c>
+      <c r="G121" s="1">
+        <v>127.40110900000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F122" s="1">
+        <v>35.422293000000003</v>
+      </c>
+      <c r="G122" s="1">
+        <v>127.401398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F121" s="1">
-        <v>35.422393999999997</v>
-      </c>
-      <c r="G121" s="1">
-        <v>127.40106</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G122" s="1" t="s">
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>194</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F123" s="1">
+        <v>35.415115</v>
+      </c>
+      <c r="G123" s="1">
+        <v>127.385756</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F124" s="1">
+        <v>35.403533000000003</v>
+      </c>
+      <c r="G124" s="1">
+        <v>127.383122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>5</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F125" s="1">
+        <v>35.409216999999998</v>
+      </c>
+      <c r="G125" s="1">
+        <v>127.37639</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>6</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F126" s="1">
+        <v>35.406869</v>
+      </c>
+      <c r="G126" s="1">
+        <v>127.373069</v>
       </c>
     </row>
   </sheetData>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="229">
   <si>
     <t>순번</t>
   </si>
@@ -728,39 +728,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월락초사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>향교오거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예정3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스타벅스 앞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예정4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서문로터리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예정5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>예정6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광한루원 벚꽃길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서문주차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서문주차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만인공원 맞은편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서문로터리 부근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>교육청사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정6</t>
+    <t>예정10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알레르망 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양우내안애 아파트 부근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원예농협 한빛지점 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원예농협 한빛지점 건너편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스티움아파트 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스티움아파트 건너편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정대로교 교량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정대로교 삼거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새마을금고서부지점 주차장 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:XFD142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4817,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -4829,10 +4941,10 @@
         <v>189</v>
       </c>
       <c r="F121" s="1">
-        <v>35.422206000000003</v>
+        <v>35.402208000000002</v>
       </c>
       <c r="G121" s="1">
-        <v>127.40110900000001</v>
+        <v>127.380799</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -4840,7 +4952,7 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -4852,10 +4964,10 @@
         <v>191</v>
       </c>
       <c r="F122" s="1">
-        <v>35.422293000000003</v>
+        <v>35.402191000000002</v>
       </c>
       <c r="G122" s="1">
-        <v>127.401398</v>
+        <v>127.380762</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -4863,22 +4975,22 @@
         <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F123" s="1">
-        <v>35.415115</v>
+        <v>35.403537</v>
       </c>
       <c r="G123" s="1">
-        <v>127.385756</v>
+        <v>127.38324</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -4886,16 +4998,16 @@
         <v>4</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F124" s="1">
         <v>35.403533000000003</v>
@@ -4909,22 +5021,22 @@
         <v>5</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F125" s="1">
-        <v>35.409216999999998</v>
+        <v>35.403153000000003</v>
       </c>
       <c r="G125" s="1">
-        <v>127.37639</v>
+        <v>127.377371</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -4938,16 +5050,385 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F126" s="1">
+        <v>35.403122000000003</v>
+      </c>
+      <c r="G126" s="1">
+        <v>127.377312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>7</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F127" s="1">
+        <v>35.414650999999999</v>
+      </c>
+      <c r="G127" s="1">
+        <v>127.38555700000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F126" s="1">
-        <v>35.406869</v>
-      </c>
-      <c r="G126" s="1">
-        <v>127.373069</v>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F128" s="1">
+        <v>35.414616000000002</v>
+      </c>
+      <c r="G128" s="1">
+        <v>127.385514</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F129" s="1">
+        <v>35.409283000000002</v>
+      </c>
+      <c r="G129" s="1">
+        <v>127.376271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>10</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F130" s="1">
+        <v>35.406576000000001</v>
+      </c>
+      <c r="G130" s="1">
+        <v>127.373217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>11</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F131" s="1">
+        <v>35.406773000000001</v>
+      </c>
+      <c r="G131" s="1">
+        <v>127.37303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F132" s="1">
+        <v>35.422656000000003</v>
+      </c>
+      <c r="G132" s="1">
+        <v>127.405427</v>
+      </c>
+      <c r="XFD132" s="1"/>
+    </row>
+    <row r="133" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F133" s="1">
+        <v>35.422668999999999</v>
+      </c>
+      <c r="G133" s="1">
+        <v>127.405357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>14</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F134" s="1">
+        <v>35.422241</v>
+      </c>
+      <c r="G134" s="1">
+        <v>127.401087</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>15</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F135" s="1">
+        <v>35.422175000000003</v>
+      </c>
+      <c r="G135" s="1">
+        <v>127.40106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>16</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F136" s="1">
+        <v>35.422314999999998</v>
+      </c>
+      <c r="G136" s="1">
+        <v>127.40136099999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>17</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F137" s="1">
+        <v>35.424208</v>
+      </c>
+      <c r="G137" s="1">
+        <v>127.400374</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>18</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F138" s="1">
+        <v>35.424173000000003</v>
+      </c>
+      <c r="G138" s="1">
+        <v>127.400401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>19</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F139" s="1">
+        <v>35.424264999999998</v>
+      </c>
+      <c r="G139" s="1">
+        <v>127.40064700000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>20</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F140" s="1">
+        <v>35.405326000000002</v>
+      </c>
+      <c r="G140" s="1">
+        <v>127.368831</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>21</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F141" s="1">
+        <v>35.405081000000003</v>
+      </c>
+      <c r="G141" s="1">
+        <v>127.3683</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>22</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F142" s="1">
+        <v>35.405566</v>
+      </c>
+      <c r="G142" s="1">
+        <v>127.371878</v>
       </c>
     </row>
   </sheetData>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="235">
   <si>
     <t>순번</t>
   </si>
@@ -716,34 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>광한루원 벚꽃길</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,74 +736,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서문로터리 부근</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교육청사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알레르망 앞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양우내안애 아파트 부근</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원예농협 한빛지점 앞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원예농협 한빛지점 건너편</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>베스티움아파트 앞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,18 +768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신정대로교 교량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -864,15 +780,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예정20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정22</t>
+    <t>설치예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치예정3</t>
+  </si>
+  <si>
+    <t>설치예정4</t>
+  </si>
+  <si>
+    <t>설치예정5</t>
+  </si>
+  <si>
+    <t>설치예정6</t>
+  </si>
+  <si>
+    <t>설치예정7</t>
+  </si>
+  <si>
+    <t>설치예정8</t>
+  </si>
+  <si>
+    <t>설치예정9</t>
+  </si>
+  <si>
+    <t>설치예정10</t>
+  </si>
+  <si>
+    <t>설치예정11</t>
+  </si>
+  <si>
+    <t>설치예정12</t>
+  </si>
+  <si>
+    <t>설치예정13</t>
+  </si>
+  <si>
+    <t>설치예정14</t>
+  </si>
+  <si>
+    <t>설치예정15</t>
+  </si>
+  <si>
+    <t>설치예정16</t>
+  </si>
+  <si>
+    <t>설치예정17</t>
+  </si>
+  <si>
+    <t>설치예정18</t>
+  </si>
+  <si>
+    <t>설치예정19</t>
+  </si>
+  <si>
+    <t>설치예정20</t>
+  </si>
+  <si>
+    <t>설치예정21</t>
+  </si>
+  <si>
+    <t>설치예정22</t>
+  </si>
+  <si>
+    <t>철거예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1319,18 +1323,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD142"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
@@ -3888,11 +3893,11 @@
       <c r="C83" s="1">
         <v>1</v>
       </c>
-      <c r="D83" s="1">
-        <v>72</v>
-      </c>
-      <c r="E83" s="3">
-        <v>72</v>
+      <c r="D83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="F83" s="1">
         <v>35.399880000000003</v>
@@ -3917,11 +3922,11 @@
       <c r="C84" s="1">
         <v>1</v>
       </c>
-      <c r="D84" s="1">
-        <v>73</v>
-      </c>
-      <c r="E84" s="3">
-        <v>73</v>
+      <c r="D84" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="F84" s="1">
         <v>35.399850000000001</v>
@@ -4929,16 +4934,16 @@
         <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F121" s="1">
         <v>35.402208000000002</v>
@@ -4952,16 +4957,16 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F122" s="1">
         <v>35.402191000000002</v>
@@ -4975,16 +4980,16 @@
         <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F123" s="1">
         <v>35.403537</v>
@@ -4998,16 +5003,16 @@
         <v>4</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F124" s="1">
         <v>35.403533000000003</v>
@@ -5021,16 +5026,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F125" s="1">
         <v>35.403153000000003</v>
@@ -5044,16 +5049,16 @@
         <v>6</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F126" s="1">
         <v>35.403122000000003</v>
@@ -5067,16 +5072,16 @@
         <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="F127" s="1">
         <v>35.414650999999999</v>
@@ -5090,16 +5095,16 @@
         <v>8</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F128" s="1">
         <v>35.414616000000002</v>
@@ -5108,21 +5113,21 @@
         <v>127.385514</v>
       </c>
     </row>
-    <row r="129" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>9</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="F129" s="1">
         <v>35.409283000000002</v>
@@ -5131,21 +5136,21 @@
         <v>127.376271</v>
       </c>
     </row>
-    <row r="130" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>10</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="F130" s="1">
         <v>35.406576000000001</v>
@@ -5154,21 +5159,21 @@
         <v>127.373217</v>
       </c>
     </row>
-    <row r="131" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>11</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F131" s="1">
         <v>35.406773000000001</v>
@@ -5177,21 +5182,21 @@
         <v>127.37303</v>
       </c>
     </row>
-    <row r="132" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>12</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F132" s="1">
         <v>35.422656000000003</v>
@@ -5199,23 +5204,22 @@
       <c r="G132" s="1">
         <v>127.405427</v>
       </c>
-      <c r="XFD132" s="1"/>
-    </row>
-    <row r="133" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>13</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F133" s="1">
         <v>35.422668999999999</v>
@@ -5224,21 +5228,21 @@
         <v>127.405357</v>
       </c>
     </row>
-    <row r="134" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>14</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F134" s="1">
         <v>35.422241</v>
@@ -5247,21 +5251,21 @@
         <v>127.401087</v>
       </c>
     </row>
-    <row r="135" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>15</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F135" s="1">
         <v>35.422175000000003</v>
@@ -5270,21 +5274,21 @@
         <v>127.40106</v>
       </c>
     </row>
-    <row r="136" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>16</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F136" s="1">
         <v>35.422314999999998</v>
@@ -5293,21 +5297,21 @@
         <v>127.40136099999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>17</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F137" s="1">
         <v>35.424208</v>
@@ -5316,21 +5320,21 @@
         <v>127.400374</v>
       </c>
     </row>
-    <row r="138" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>18</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F138" s="1">
         <v>35.424173000000003</v>
@@ -5339,21 +5343,21 @@
         <v>127.400401</v>
       </c>
     </row>
-    <row r="139" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>19</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F139" s="1">
         <v>35.424264999999998</v>
@@ -5362,21 +5366,21 @@
         <v>127.40064700000001</v>
       </c>
     </row>
-    <row r="140" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>20</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F140" s="1">
         <v>35.405326000000002</v>
@@ -5385,21 +5389,21 @@
         <v>127.368831</v>
       </c>
     </row>
-    <row r="141" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>21</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F141" s="1">
         <v>35.405081000000003</v>
@@ -5408,27 +5412,50 @@
         <v>127.3683</v>
       </c>
     </row>
-    <row r="142" spans="1:7 16384:16384" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>22</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F142" s="1">
         <v>35.405566</v>
       </c>
       <c r="G142" s="1">
         <v>127.371878</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>24</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F144" s="1">
+        <v>35.405679999999997</v>
+      </c>
+      <c r="G144" s="1">
+        <v>127.371999</v>
       </c>
     </row>
   </sheetData>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="265">
   <si>
     <t>순번</t>
   </si>
@@ -856,27 +856,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>철거예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>변경예정1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변경예정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철거예정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철거예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철거예정2</t>
+    <t>변경예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1323,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1774,11 +1894,11 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10</v>
+      <c r="D15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="F15" s="1">
         <v>35.420900000000003</v>
@@ -1806,11 +1926,11 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3">
-        <v>11</v>
+      <c r="D16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="F16" s="1">
         <v>35.4208</v>
@@ -2733,11 +2853,11 @@
       <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="1">
-        <v>36</v>
-      </c>
-      <c r="E46" s="3">
-        <v>36</v>
+      <c r="D46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="F46" s="1">
         <v>35.415550000000003</v>
@@ -2768,11 +2888,11 @@
       <c r="C47" s="1">
         <v>1</v>
       </c>
-      <c r="D47" s="1">
-        <v>37</v>
-      </c>
-      <c r="E47" s="3">
-        <v>37</v>
+      <c r="D47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="F47" s="1">
         <v>35.415399999999998</v>
@@ -3155,11 +3275,11 @@
       <c r="C59" s="1">
         <v>1</v>
       </c>
-      <c r="D59" s="1">
-        <v>48</v>
-      </c>
-      <c r="E59" s="3">
-        <v>48</v>
+      <c r="D59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="F59" s="1">
         <v>35.412730000000003</v>
@@ -3190,11 +3310,11 @@
       <c r="C60" s="1">
         <v>1</v>
       </c>
-      <c r="D60" s="1">
-        <v>49</v>
-      </c>
-      <c r="E60" s="3">
-        <v>49</v>
+      <c r="D60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="F60" s="1">
         <v>35.412500000000001</v>
@@ -3222,11 +3342,11 @@
       <c r="C61" s="1">
         <v>1</v>
       </c>
-      <c r="D61" s="1">
-        <v>50</v>
-      </c>
-      <c r="E61" s="3">
-        <v>50</v>
+      <c r="D61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="F61" s="1">
         <v>35.412300000000002</v>
@@ -3254,11 +3374,11 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-      <c r="D62" s="1">
-        <v>51</v>
-      </c>
-      <c r="E62" s="3">
-        <v>51</v>
+      <c r="D62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="F62" s="1">
         <v>35.4099</v>
@@ -3277,11 +3397,11 @@
       <c r="C63" s="1">
         <v>1</v>
       </c>
-      <c r="D63" s="1">
-        <v>52</v>
-      </c>
-      <c r="E63" s="3">
-        <v>52</v>
+      <c r="D63" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="F63" s="1">
         <v>35.409829999999999</v>
@@ -3594,11 +3714,11 @@
       <c r="C73" s="1">
         <v>1</v>
       </c>
-      <c r="D73" s="1">
-        <v>62</v>
-      </c>
-      <c r="E73" s="3">
-        <v>62</v>
+      <c r="D73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F73" s="1">
         <v>35.403599999999997</v>
@@ -3626,11 +3746,11 @@
       <c r="C74" s="1">
         <v>1</v>
       </c>
-      <c r="D74" s="1">
-        <v>63</v>
-      </c>
-      <c r="E74" s="3">
-        <v>63</v>
+      <c r="D74" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="F74" s="1">
         <v>35.403550000000003</v>
@@ -3710,11 +3830,11 @@
       <c r="C77" s="1">
         <v>1</v>
       </c>
-      <c r="D77" s="1">
-        <v>66</v>
-      </c>
-      <c r="E77" s="3">
-        <v>66</v>
+      <c r="D77" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="F77" s="1">
         <v>35.401249999999997</v>
@@ -3733,11 +3853,11 @@
       <c r="C78" s="1">
         <v>1</v>
       </c>
-      <c r="D78" s="1">
-        <v>67</v>
-      </c>
-      <c r="E78" s="3">
-        <v>67</v>
+      <c r="D78" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="F78" s="1">
         <v>35.401299999999999</v>
@@ -3835,11 +3955,11 @@
       <c r="C81" s="1">
         <v>1</v>
       </c>
-      <c r="D81" s="1">
-        <v>70</v>
-      </c>
-      <c r="E81" s="3">
-        <v>70</v>
+      <c r="D81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="F81" s="1">
         <v>35.402200000000001</v>
@@ -3870,11 +3990,11 @@
       <c r="C82" s="1">
         <v>1</v>
       </c>
-      <c r="D82" s="1">
-        <v>71</v>
-      </c>
-      <c r="E82" s="3">
-        <v>71</v>
+      <c r="D82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="F82" s="1">
         <v>35.402149999999999</v>
@@ -3894,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>228</v>
@@ -3923,10 +4043,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F84" s="1">
         <v>35.399850000000001</v>
@@ -3957,11 +4077,11 @@
       <c r="C85" s="1">
         <v>1</v>
       </c>
-      <c r="D85" s="1">
-        <v>74</v>
-      </c>
-      <c r="E85" s="3">
-        <v>74</v>
+      <c r="D85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="F85" s="1">
         <v>35.3996</v>
@@ -3986,11 +4106,11 @@
       <c r="C86" s="1">
         <v>1</v>
       </c>
-      <c r="D86" s="1">
-        <v>75</v>
-      </c>
-      <c r="E86" s="3">
-        <v>75</v>
+      <c r="D86" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="F86" s="1">
         <v>35.399560000000001</v>
@@ -4724,11 +4844,11 @@
       <c r="C110" s="1">
         <v>1</v>
       </c>
-      <c r="D110" s="1">
-        <v>98</v>
-      </c>
-      <c r="E110" s="3">
-        <v>98</v>
+      <c r="D110" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="F110" s="1">
         <v>35.413400000000003</v>
@@ -4756,11 +4876,11 @@
       <c r="C111" s="1">
         <v>1</v>
       </c>
-      <c r="D111" s="1">
-        <v>99</v>
-      </c>
-      <c r="E111" s="3">
-        <v>99</v>
+      <c r="D111" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="F111" s="1">
         <v>35.413400000000003</v>
@@ -4881,11 +5001,11 @@
       <c r="C115" s="1">
         <v>1</v>
       </c>
-      <c r="D115" s="1">
-        <v>102</v>
-      </c>
-      <c r="E115" s="3">
-        <v>102</v>
+      <c r="D115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="F115" s="1">
         <v>35.404899999999998</v>
@@ -4904,11 +5024,11 @@
       <c r="C116" s="1">
         <v>1</v>
       </c>
-      <c r="D116" s="1">
-        <v>103</v>
-      </c>
-      <c r="E116" s="3">
-        <v>103</v>
+      <c r="D116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F116" s="1">
         <v>35.404899999999998</v>
@@ -5433,29 +5553,6 @@
       </c>
       <c r="G142" s="1">
         <v>127.371878</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>24</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C144" s="1">
-        <v>1</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F144" s="1">
-        <v>35.405679999999997</v>
-      </c>
-      <c r="G144" s="1">
-        <v>127.371999</v>
       </c>
     </row>
   </sheetData>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5526,10 +5526,10 @@
         <v>226</v>
       </c>
       <c r="F141" s="1">
-        <v>35.405081000000003</v>
+        <v>35.414577000000001</v>
       </c>
       <c r="G141" s="1">
-        <v>127.3683</v>
+        <v>127.385471</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126:G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5180,12 +5180,6 @@
       <c r="E126" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F126" s="1">
-        <v>35.403122000000003</v>
-      </c>
-      <c r="G126" s="1">
-        <v>127.377312</v>
-      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
@@ -5202,12 +5196,6 @@
       </c>
       <c r="E127" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F127" s="1">
-        <v>35.414650999999999</v>
-      </c>
-      <c r="G127" s="1">
-        <v>127.38555700000001</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126:G127"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5329,12 +5329,6 @@
       <c r="E133" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F133" s="1">
-        <v>35.422668999999999</v>
-      </c>
-      <c r="G133" s="1">
-        <v>127.405357</v>
-      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -5443,12 +5437,6 @@
       </c>
       <c r="E138" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="F138" s="1">
-        <v>35.424173000000003</v>
-      </c>
-      <c r="G138" s="1">
-        <v>127.400401</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5158,7 +5158,7 @@
         <v>210</v>
       </c>
       <c r="F125" s="1">
-        <v>35.403153000000003</v>
+        <v>35.403201000000003</v>
       </c>
       <c r="G125" s="1">
         <v>127.377371</v>
@@ -5179,6 +5179,12 @@
       </c>
       <c r="E126" s="1" t="s">
         <v>211</v>
+      </c>
+      <c r="F126" s="1">
+        <v>35.403165999999999</v>
+      </c>
+      <c r="G126" s="1">
+        <v>127.37728</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+      <selection activeCell="F121" sqref="F121:G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5065,12 +5065,6 @@
       <c r="E121" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F121" s="1">
-        <v>35.402208000000002</v>
-      </c>
-      <c r="G121" s="1">
-        <v>127.380799</v>
-      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121:G121"/>
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5065,6 +5065,12 @@
       <c r="E121" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="F121" s="1">
+        <v>35.402199000000003</v>
+      </c>
+      <c r="G121" s="1">
+        <v>127.380906</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
@@ -5106,10 +5112,10 @@
         <v>208</v>
       </c>
       <c r="F123" s="1">
-        <v>35.403537</v>
+        <v>35.403711999999999</v>
       </c>
       <c r="G123" s="1">
-        <v>127.38324</v>
+        <v>127.383213</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -5129,10 +5135,10 @@
         <v>209</v>
       </c>
       <c r="F124" s="1">
-        <v>35.403533000000003</v>
+        <v>35.403663999999999</v>
       </c>
       <c r="G124" s="1">
-        <v>127.383122</v>
+        <v>127.383106</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5065,12 +5065,6 @@
       <c r="E121" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F121" s="1">
-        <v>35.402199000000003</v>
-      </c>
-      <c r="G121" s="1">
-        <v>127.380906</v>
-      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5065,6 +5065,12 @@
       <c r="E121" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="F121" s="1">
+        <v>35.402208000000002</v>
+      </c>
+      <c r="G121" s="1">
+        <v>127.38090099999999</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5335,6 +5335,12 @@
       <c r="E133" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="F133" s="1">
+        <v>35.422612000000001</v>
+      </c>
+      <c r="G133" s="1">
+        <v>127.405626</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -5352,12 +5358,6 @@
       <c r="E134" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F134" s="1">
-        <v>35.422241</v>
-      </c>
-      <c r="G134" s="1">
-        <v>127.401087</v>
-      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
@@ -5443,6 +5443,12 @@
       </c>
       <c r="E138" s="1" t="s">
         <v>223</v>
+      </c>
+      <c r="F138" s="1">
+        <v>35.424264999999998</v>
+      </c>
+      <c r="G138" s="1">
+        <v>127.400358</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5358,6 +5358,12 @@
       <c r="E134" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="F134" s="1">
+        <v>35.422241</v>
+      </c>
+      <c r="G134" s="1">
+        <v>127.401071</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
@@ -5444,12 +5450,6 @@
       <c r="E138" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F138" s="1">
-        <v>35.424264999999998</v>
-      </c>
-      <c r="G138" s="1">
-        <v>127.400358</v>
-      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
@@ -5512,12 +5512,6 @@
       </c>
       <c r="E141" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F141" s="1">
-        <v>35.414577000000001</v>
-      </c>
-      <c r="G141" s="1">
-        <v>127.385471</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5335,12 +5335,6 @@
       <c r="E133" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F133" s="1">
-        <v>35.422612000000001</v>
-      </c>
-      <c r="G133" s="1">
-        <v>127.405626</v>
-      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -5381,12 +5375,6 @@
       <c r="E135" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F135" s="1">
-        <v>35.422175000000003</v>
-      </c>
-      <c r="G135" s="1">
-        <v>127.40106</v>
-      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
@@ -5512,6 +5500,12 @@
       </c>
       <c r="E141" s="1" t="s">
         <v>226</v>
+      </c>
+      <c r="F141" s="1">
+        <v>35.405054999999997</v>
+      </c>
+      <c r="G141" s="1">
+        <v>127.36797300000001</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5203,6 +5203,12 @@
       <c r="E127" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="F127" s="1">
+        <v>35.414503000000003</v>
+      </c>
+      <c r="G127" s="1">
+        <v>127.38538</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
@@ -5335,6 +5341,12 @@
       <c r="E133" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="F133" s="1">
+        <v>35.422612000000001</v>
+      </c>
+      <c r="G133" s="1">
+        <v>127.405282</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -5375,6 +5387,12 @@
       <c r="E135" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="F135" s="1">
+        <v>35.422319000000002</v>
+      </c>
+      <c r="G135" s="1">
+        <v>127.401044</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
@@ -5437,6 +5455,12 @@
       </c>
       <c r="E138" s="1" t="s">
         <v>223</v>
+      </c>
+      <c r="F138" s="1">
+        <v>35.424287</v>
+      </c>
+      <c r="G138" s="1">
+        <v>127.40034199999999</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127:G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5203,12 +5203,6 @@
       <c r="E127" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F127" s="1">
-        <v>35.414503000000003</v>
-      </c>
-      <c r="G127" s="1">
-        <v>127.38538</v>
-      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
@@ -5341,12 +5335,6 @@
       <c r="E133" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F133" s="1">
-        <v>35.422612000000001</v>
-      </c>
-      <c r="G133" s="1">
-        <v>127.405282</v>
-      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -5387,12 +5375,6 @@
       <c r="E135" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F135" s="1">
-        <v>35.422319000000002</v>
-      </c>
-      <c r="G135" s="1">
-        <v>127.401044</v>
-      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
@@ -5455,12 +5437,6 @@
       </c>
       <c r="E138" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="F138" s="1">
-        <v>35.424287</v>
-      </c>
-      <c r="G138" s="1">
-        <v>127.40034199999999</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127:G127"/>
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5438,6 +5438,12 @@
       <c r="E138" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="F138" s="1">
+        <v>35.424300000000002</v>
+      </c>
+      <c r="G138" s="1">
+        <v>127.400336</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5335,6 +5335,12 @@
       <c r="E133" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="F133" s="1">
+        <v>35.422604</v>
+      </c>
+      <c r="G133" s="1">
+        <v>127.40522900000001</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -5374,6 +5380,12 @@
       </c>
       <c r="E135" s="1" t="s">
         <v>220</v>
+      </c>
+      <c r="F135" s="1">
+        <v>35.422359</v>
+      </c>
+      <c r="G135" s="1">
+        <v>127.401044</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5203,6 +5203,12 @@
       <c r="E127" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="F127" s="1">
+        <v>35.414472000000004</v>
+      </c>
+      <c r="G127" s="1">
+        <v>127.385364</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
@@ -5335,12 +5341,6 @@
       <c r="E133" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F133" s="1">
-        <v>35.422604</v>
-      </c>
-      <c r="G133" s="1">
-        <v>127.40522900000001</v>
-      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -5449,12 +5449,6 @@
       </c>
       <c r="E138" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="F138" s="1">
-        <v>35.424300000000002</v>
-      </c>
-      <c r="G138" s="1">
-        <v>127.400336</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5341,6 +5341,12 @@
       <c r="E133" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="F133" s="1">
+        <v>35.422620999999999</v>
+      </c>
+      <c r="G133" s="1">
+        <v>127.40522300000001</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -5449,6 +5455,12 @@
       </c>
       <c r="E138" s="1" t="s">
         <v>223</v>
+      </c>
+      <c r="F138" s="1">
+        <v>35.424281999999998</v>
+      </c>
+      <c r="G138" s="1">
+        <v>127.400336</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5342,10 +5342,10 @@
         <v>218</v>
       </c>
       <c r="F133" s="1">
-        <v>35.422620999999999</v>
+        <v>35.42266</v>
       </c>
       <c r="G133" s="1">
-        <v>127.40522300000001</v>
+        <v>127.40523899999999</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121:G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5065,12 +5065,6 @@
       <c r="E121" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F121" s="1">
-        <v>35.402208000000002</v>
-      </c>
-      <c r="G121" s="1">
-        <v>127.38090099999999</v>
-      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121:G121"/>
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5065,6 +5065,12 @@
       <c r="E121" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="F121" s="1">
+        <v>35.402208000000002</v>
+      </c>
+      <c r="G121" s="1">
+        <v>127.380912</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+      <selection activeCell="F121" sqref="F121:G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5065,12 +5065,6 @@
       <c r="E121" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F121" s="1">
-        <v>35.402208000000002</v>
-      </c>
-      <c r="G121" s="1">
-        <v>127.380912</v>
-      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121:G121"/>
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5065,6 +5065,12 @@
       <c r="E121" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="F121" s="1">
+        <v>35.402230000000003</v>
+      </c>
+      <c r="G121" s="1">
+        <v>127.38089600000001</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="246">
   <si>
     <t>순번</t>
   </si>
@@ -356,38 +356,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신세계광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>민원과(6142)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 04. 30. ~ 2025. 05. 31.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개별공시지가 이의신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조은광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관광과(5706)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2025. 04. 28. ~ 2025. 05. 31.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피오리움 달빛정원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,23 +384,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남원세무서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남원세무서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 01. ~ 2025. 05. 31.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합소득세&amp;근로장려금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합소득세&amp;근로장려금</t>
+    <t>행정지원과(6064)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 04. ~ 2025. 06. 14.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월광포차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미도광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광과(5706)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피오리움 달빛정원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이룸디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이룸디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나눔광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 04. ~ 2025. 06. 14.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육체육과(5614)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달빛체조 광장 운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장나염광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해달맞이 생활체육 교실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광한루원 벚꽃길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서문주차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서문주차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만인공원 맞은편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서문로터리 부근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육청사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알레르망 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양우내안애 아파트 부근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원예농협 한빛지점 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원예농협 한빛지점 건너편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스티움아파트 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스티움아파트 건너편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정대로교 교량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정대로교 삼거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새마을금고서부지점 주차장 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치예정3</t>
+  </si>
+  <si>
+    <t>설치예정4</t>
+  </si>
+  <si>
+    <t>설치예정5</t>
+  </si>
+  <si>
+    <t>설치예정6</t>
+  </si>
+  <si>
+    <t>설치예정7</t>
+  </si>
+  <si>
+    <t>설치예정8</t>
+  </si>
+  <si>
+    <t>설치예정9</t>
+  </si>
+  <si>
+    <t>설치예정10</t>
+  </si>
+  <si>
+    <t>설치예정11</t>
+  </si>
+  <si>
+    <t>설치예정12</t>
+  </si>
+  <si>
+    <t>설치예정13</t>
+  </si>
+  <si>
+    <t>설치예정14</t>
+  </si>
+  <si>
+    <t>설치예정15</t>
+  </si>
+  <si>
+    <t>설치예정16</t>
+  </si>
+  <si>
+    <t>설치예정17</t>
+  </si>
+  <si>
+    <t>설치예정18</t>
+  </si>
+  <si>
+    <t>설치예정19</t>
+  </si>
+  <si>
+    <t>설치예정20</t>
+  </si>
+  <si>
+    <t>설치예정21</t>
+  </si>
+  <si>
+    <t>설치예정22</t>
+  </si>
+  <si>
+    <t>철거예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철거예정4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경예정19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 06. 01. ~ 2025. 06. 30.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동체지원센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 06. 02. ~ 2025. 06. 14.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예스장 행사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아임디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 01. ~ 2025. 06. 30.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,39 +760,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문화예술과(6171)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 12. ~ 2025. 05. 26.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 12. ~ 2025. 05. 26.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가야고분군 홍보관 개관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늘푸른광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늘푸른광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화예술과(6171)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가야고분군 홍보관 개관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정지원과(6064)</t>
+    <t>2025. 05. 30. ~ 2025. 07. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이룸디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 28. ~ 2025. 06. 25.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌발 해충피해 예방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장나염광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농업기술센터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -472,7 +788,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월광포차</t>
+    <t>이룸디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거점스포츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 28. ~ 2025. 06. 11.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소년체전 수상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장나염광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 01. ~ 2025. 06. 30.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장나염광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 23. ~ 2025. 06. 22.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 27. ~ 2025. 06. 10.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항공버스 운행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 06. 04. ~ 2025. 07. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙경찰학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이룸디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,167 +852,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미도광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 04. 26. ~ 2025. 05. 06.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘향제(백일장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신세계광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관광과(5706)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 04. 28. ~ 2025. 05. 31.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피오리움 달빛정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개별공시지가 이의신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 12. ~ 2025. 05. 25.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시 간이역에서(무용공연)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획예산과(6228)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 04. 18. ~ 2025. 05. 02.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시정발전 제안공모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마인드광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마인드광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 15. ~ 2025. 06. 03.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표로 화합하는 대한민국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이룸디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 12. ~ 2025. 05. 18.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남원시장배 시민 등반대회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민원과(6142)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조은광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표로 화합하는 대한민국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 12. ~ 2025. 05. 25.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정지원과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 10. ~ 2025. 05. 26.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진실은 사라지지 않는다(인권강의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진실은 사라지지 않는다(인권강의)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이룸디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 15. ~ 2025. 06. 03.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나눔광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 04. 25. ~ 2025. 05. 06.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 12. ~ 2025. 05. 15.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 12. ~ 2025. 05. 15.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>향교지구 공영주차장 준공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남원시장배 시민 등반대회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 04. ~ 2025. 06. 14.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 04. ~ 2025. 05. 20.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아카데미-잘쓰고모으는부자공식</t>
+    <t>2025. 05. 30. ~ 2025. 07. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙경찰학교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -648,355 +864,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2025. 05. 12. ~ 2025. 05. 31.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달빛체조 광장 운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장나염광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 05. 10. ~ 2025. 05. 26.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘향제(문화예술제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보건소(7927)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폐렴구균 23기 무료 접종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노암동(4777)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 04. 18. ~ 2025. 05. 06.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘향제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅광고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가대표선발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창업교육생모집(수요조사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025. 04. 30. ~ 2025. 05. 31.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시 간이역에서(무용공연)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획예산과(6228)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해달맞이 생활체육 교실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광한루원 벚꽃길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>십수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서문주차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서문주차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만인공원 맞은편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서문로터리 부근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육청사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알레르망 앞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양우내안애 아파트 부근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원예농협 한빛지점 앞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원예농협 한빛지점 건너편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스티움아파트 앞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스티움아파트 건너편</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신정대로교 교량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신정대로교 삼거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새마을금고서부지점 주차장 앞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치예정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치예정3</t>
-  </si>
-  <si>
-    <t>설치예정4</t>
-  </si>
-  <si>
-    <t>설치예정5</t>
-  </si>
-  <si>
-    <t>설치예정6</t>
-  </si>
-  <si>
-    <t>설치예정7</t>
-  </si>
-  <si>
-    <t>설치예정8</t>
-  </si>
-  <si>
-    <t>설치예정9</t>
-  </si>
-  <si>
-    <t>설치예정10</t>
-  </si>
-  <si>
-    <t>설치예정11</t>
-  </si>
-  <si>
-    <t>설치예정12</t>
-  </si>
-  <si>
-    <t>설치예정13</t>
-  </si>
-  <si>
-    <t>설치예정14</t>
-  </si>
-  <si>
-    <t>설치예정15</t>
-  </si>
-  <si>
-    <t>설치예정16</t>
-  </si>
-  <si>
-    <t>설치예정17</t>
-  </si>
-  <si>
-    <t>설치예정18</t>
-  </si>
-  <si>
-    <t>설치예정19</t>
-  </si>
-  <si>
-    <t>설치예정20</t>
-  </si>
-  <si>
-    <t>설치예정21</t>
-  </si>
-  <si>
-    <t>설치예정22</t>
-  </si>
-  <si>
-    <t>철거예정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철거예정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철거예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철거예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철거예정3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철거예정4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철거예정4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경예정19</t>
+    <t>2025. 05. 28. ~ 2025. 06. 11.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소년체전 수상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천하광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육체육과(5614)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 06. 02. ~ 2025. 06. 17.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아카데미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 06. 30.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 04. 23. ~ 2025. 06. 22.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아임디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대륙광고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 01. ~ 2025. 06. 30.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 05. 12. ~ 2025. 06. 30.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 06. 04. ~ 2025. 07. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025. 06. 04. ~ 2025. 07. 31.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1445,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1509,7 +1433,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>91</v>
@@ -1536,18 +1460,6 @@
       </c>
       <c r="G3" s="1">
         <v>127.41030000000001</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1573,16 +1485,16 @@
         <v>127.40940000000001</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1608,16 +1520,16 @@
         <v>127.40940000000001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1643,10 +1555,16 @@
         <v>127.40935</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1671,18 +1589,6 @@
       <c r="G7" s="1">
         <v>127.40935</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1707,16 +1613,16 @@
         <v>127.4093</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1741,6 +1647,18 @@
       <c r="G9" s="1">
         <v>127.4093</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1765,16 +1683,16 @@
         <v>127.40309999999999</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1800,10 +1718,13 @@
         <v>127.40325</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1829,13 +1750,13 @@
         <v>127.40260000000001</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1883,6 +1804,18 @@
       <c r="G14" s="1">
         <v>127.4008</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1895,10 +1828,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1">
         <v>35.420900000000003</v>
@@ -1906,14 +1839,17 @@
       <c r="G15" s="1">
         <v>127.40260000000001</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1927,28 +1863,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1">
         <v>35.4208</v>
       </c>
       <c r="G16" s="1">
         <v>127.4027</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1997,16 +1921,16 @@
         <v>127.40434999999999</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2054,18 +1978,6 @@
       <c r="G20" s="1">
         <v>127.3972</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -2113,13 +2025,13 @@
         <v>127.3942</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2144,14 +2056,17 @@
       <c r="G23" s="1">
         <v>127.3925</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2176,18 +2091,6 @@
       <c r="G24" s="1">
         <v>127.3925</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2212,13 +2115,13 @@
         <v>127.39245</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2267,16 +2170,16 @@
         <v>127.39230000000001</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2301,6 +2204,18 @@
       <c r="G28" s="1">
         <v>127.39230000000001</v>
       </c>
+      <c r="H28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2348,16 +2263,16 @@
         <v>127.39713</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2383,16 +2298,16 @@
         <v>127.39749999999999</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2418,16 +2333,16 @@
         <v>127.3974</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2452,15 +2367,6 @@
       <c r="G33" s="1">
         <v>127.3978</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -2507,6 +2413,18 @@
       <c r="G35" s="1">
         <v>127.39834999999999</v>
       </c>
+      <c r="H35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -2531,16 +2449,16 @@
         <v>127.39945</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2565,18 +2483,6 @@
       <c r="G37" s="1">
         <v>127.3994</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -2601,10 +2507,16 @@
         <v>127.3994</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2630,16 +2542,16 @@
         <v>127.3993</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2664,18 +2576,6 @@
       <c r="G40" s="1">
         <v>127.3993</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -2699,18 +2599,6 @@
       <c r="G41" s="1">
         <v>127.39924999999999</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -2735,10 +2623,16 @@
         <v>127.39555</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2764,16 +2658,16 @@
         <v>127.39551</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2798,14 +2692,17 @@
       <c r="G44" s="1">
         <v>127.3952</v>
       </c>
+      <c r="H44" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="I44" s="1" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2831,16 +2728,16 @@
         <v>127.38915</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2854,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="F46" s="1">
         <v>35.415550000000003</v>
@@ -2866,16 +2763,16 @@
         <v>127.38996</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2889,28 +2786,16 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="F47" s="1">
         <v>35.415399999999998</v>
       </c>
       <c r="G47" s="1">
         <v>127.3901</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2936,16 +2821,16 @@
         <v>127.39382000000001</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2970,18 +2855,6 @@
       <c r="G49" s="1">
         <v>127.3934</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -3005,6 +2878,18 @@
       <c r="G50" s="1">
         <v>127.39117</v>
       </c>
+      <c r="H50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -3028,14 +2913,17 @@
       <c r="G51" s="1">
         <v>127.3907</v>
       </c>
+      <c r="H51" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="I51" s="1" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3061,10 +2949,16 @@
         <v>127.38339999999999</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3090,13 +2984,13 @@
         <v>127.38343999999999</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3121,18 +3015,6 @@
       <c r="G54" s="1">
         <v>127.3847</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -3157,16 +3039,16 @@
         <v>127.38500000000001</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3191,15 +3073,6 @@
       <c r="G56" s="1">
         <v>127.38500000000001</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -3223,14 +3096,17 @@
       <c r="G57" s="1">
         <v>127.38074</v>
       </c>
+      <c r="H57" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="I57" s="1" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3255,15 +3131,6 @@
       <c r="G58" s="1">
         <v>127.3805</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -3276,28 +3143,16 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="F59" s="1">
         <v>35.412730000000003</v>
       </c>
       <c r="G59" s="1">
         <v>127.3822</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3311,10 +3166,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="F60" s="1">
         <v>35.412500000000001</v>
@@ -3322,14 +3177,17 @@
       <c r="G60" s="1">
         <v>127.38182</v>
       </c>
+      <c r="H60" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="I60" s="1" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3343,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="F61" s="1">
         <v>35.412300000000002</v>
@@ -3354,14 +3212,17 @@
       <c r="G61" s="1">
         <v>127.3815</v>
       </c>
+      <c r="H61" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="I61" s="1" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3375,10 +3236,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="F62" s="1">
         <v>35.4099</v>
@@ -3398,16 +3259,28 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="F63" s="1">
         <v>35.409829999999999</v>
       </c>
       <c r="G63" s="1">
         <v>127.3827</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3432,6 +3305,18 @@
       <c r="G64" s="1">
         <v>127.38659</v>
       </c>
+      <c r="H64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
@@ -3456,16 +3341,16 @@
         <v>127.38655</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>144</v>
+        <v>232</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3490,18 +3375,6 @@
       <c r="G66" s="1">
         <v>127.38625999999999</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
@@ -3526,16 +3399,16 @@
         <v>127.38618</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3560,18 +3433,6 @@
       <c r="G68" s="1">
         <v>127.38567</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
@@ -3596,13 +3457,13 @@
         <v>127.3856</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3627,14 +3488,17 @@
       <c r="G70" s="1">
         <v>127.38621999999999</v>
       </c>
+      <c r="H70" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="I70" s="1" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3660,13 +3524,13 @@
         <v>127.38618</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3692,16 +3556,16 @@
         <v>127.38612999999999</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3715,10 +3579,10 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="F73" s="1">
         <v>35.403599999999997</v>
@@ -3726,14 +3590,17 @@
       <c r="G73" s="1">
         <v>127.38679999999999</v>
       </c>
+      <c r="H73" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="I73" s="1" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3747,10 +3614,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="F74" s="1">
         <v>35.403550000000003</v>
@@ -3759,16 +3626,16 @@
         <v>127.38685</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3793,6 +3660,9 @@
       <c r="G75" s="1">
         <v>127.37652</v>
       </c>
+      <c r="H75" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
@@ -3816,8 +3686,17 @@
       <c r="G76" s="1">
         <v>127.3762</v>
       </c>
+      <c r="H76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="J76" s="1" t="s">
-        <v>176</v>
+        <v>229</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3831,10 +3710,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="F77" s="1">
         <v>35.401249999999997</v>
@@ -3854,10 +3733,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="F78" s="1">
         <v>35.401299999999999</v>
@@ -3866,16 +3745,16 @@
         <v>127.37815999999999</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3900,15 +3779,6 @@
       <c r="G79" s="1">
         <v>127.37730000000001</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
@@ -3932,18 +3802,6 @@
       <c r="G80" s="1">
         <v>127.3772</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
@@ -3956,10 +3814,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="F81" s="1">
         <v>35.402200000000001</v>
@@ -3968,16 +3826,16 @@
         <v>127.3805</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3991,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="F82" s="1">
         <v>35.402149999999999</v>
@@ -4014,22 +3872,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="F83" s="1">
         <v>35.399880000000003</v>
       </c>
       <c r="G83" s="1">
         <v>127.38012000000001</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4043,10 +3895,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="F84" s="1">
         <v>35.399850000000001</v>
@@ -4055,16 +3907,16 @@
         <v>127.38001</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4078,10 +3930,10 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="F85" s="1">
         <v>35.3996</v>
@@ -4090,10 +3942,16 @@
         <v>127.37962</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4107,10 +3965,10 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="F86" s="1">
         <v>35.399560000000001</v>
@@ -4119,13 +3977,13 @@
         <v>127.37952</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4150,18 +4008,6 @@
       <c r="G87" s="1">
         <v>127.3792</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
@@ -4185,9 +4031,6 @@
       <c r="G88" s="1">
         <v>127.38005</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
@@ -4211,15 +4054,6 @@
       <c r="G89" s="1">
         <v>127.3734</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
@@ -4243,9 +4077,6 @@
       <c r="G90" s="1">
         <v>127.3733</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
@@ -4270,10 +4101,16 @@
         <v>127.37318</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4298,14 +4135,17 @@
       <c r="G92" s="1">
         <v>127.37161</v>
       </c>
+      <c r="H92" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="I92" s="1" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4330,6 +4170,18 @@
       <c r="G93" s="1">
         <v>127.37151</v>
       </c>
+      <c r="H93" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
@@ -4353,15 +4205,6 @@
       <c r="G94" s="1">
         <v>127.3741</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
@@ -4385,18 +4228,6 @@
       <c r="G95" s="1">
         <v>127.37405</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
@@ -4421,10 +4252,16 @@
         <v>127.37430000000001</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4473,13 +4310,13 @@
         <v>127.37269999999999</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -4505,16 +4342,16 @@
         <v>127.37275</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -4539,18 +4376,6 @@
       <c r="G100" s="1">
         <v>127.3728</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
@@ -4575,16 +4400,16 @@
         <v>127.3738</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -4633,16 +4458,16 @@
         <v>127.37708000000001</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -4667,18 +4492,6 @@
       <c r="G104" s="1">
         <v>127.377</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
@@ -4703,13 +4516,13 @@
         <v>127.3763</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -4734,15 +4547,6 @@
       <c r="G106" s="1">
         <v>127.37396</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
@@ -4766,14 +4570,17 @@
       <c r="G107" s="1">
         <v>127.36747</v>
       </c>
+      <c r="H107" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="I107" s="1" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -4798,6 +4605,18 @@
       <c r="G108" s="1">
         <v>127.36620000000001</v>
       </c>
+      <c r="H108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
@@ -4821,18 +4640,6 @@
       <c r="G109" s="1">
         <v>127.364</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
@@ -4845,25 +4652,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="F110" s="1">
         <v>35.413400000000003</v>
       </c>
       <c r="G110" s="1">
         <v>127.3639</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -4877,10 +4675,10 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="F111" s="1">
         <v>35.413400000000003</v>
@@ -4889,13 +4687,13 @@
         <v>127.364</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -4943,18 +4741,6 @@
       <c r="G113" s="1">
         <v>127.3627</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
@@ -4979,16 +4765,16 @@
         <v>127.36058</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -5002,16 +4788,28 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="F115" s="1">
         <v>35.404899999999998</v>
       </c>
       <c r="G115" s="1">
         <v>127.36278</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -5025,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="F116" s="1">
         <v>35.404899999999998</v>
@@ -5037,16 +4835,16 @@
         <v>127.362679</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -5054,16 +4852,16 @@
         <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="F121" s="1">
         <v>35.402230000000003</v>
@@ -5077,16 +4875,16 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="F122" s="1">
         <v>35.402191000000002</v>
@@ -5100,16 +4898,16 @@
         <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="F123" s="1">
         <v>35.403711999999999</v>
@@ -5123,16 +4921,16 @@
         <v>4</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="F124" s="1">
         <v>35.403663999999999</v>
@@ -5146,16 +4944,16 @@
         <v>5</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="F125" s="1">
         <v>35.403201000000003</v>
@@ -5169,16 +4967,16 @@
         <v>6</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="F126" s="1">
         <v>35.403165999999999</v>
@@ -5192,16 +4990,16 @@
         <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F127" s="1">
         <v>35.414472000000004</v>
@@ -5215,16 +5013,16 @@
         <v>8</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="F128" s="1">
         <v>35.414616000000002</v>
@@ -5238,16 +5036,16 @@
         <v>9</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="F129" s="1">
         <v>35.409283000000002</v>
@@ -5261,16 +5059,16 @@
         <v>10</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="F130" s="1">
         <v>35.406576000000001</v>
@@ -5284,16 +5082,16 @@
         <v>11</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="F131" s="1">
         <v>35.406773000000001</v>
@@ -5307,16 +5105,16 @@
         <v>12</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="F132" s="1">
         <v>35.422656000000003</v>
@@ -5330,16 +5128,16 @@
         <v>13</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="F133" s="1">
         <v>35.42266</v>
@@ -5353,16 +5151,16 @@
         <v>14</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="F134" s="1">
         <v>35.422241</v>
@@ -5376,16 +5174,16 @@
         <v>15</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="F135" s="1">
         <v>35.422359</v>
@@ -5399,16 +5197,16 @@
         <v>16</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="F136" s="1">
         <v>35.422314999999998</v>
@@ -5422,16 +5220,16 @@
         <v>17</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="F137" s="1">
         <v>35.424208</v>
@@ -5445,16 +5243,16 @@
         <v>18</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="F138" s="1">
         <v>35.424281999999998</v>
@@ -5468,16 +5266,16 @@
         <v>19</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="F139" s="1">
         <v>35.424264999999998</v>
@@ -5491,16 +5289,16 @@
         <v>20</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="F140" s="1">
         <v>35.405326000000002</v>
@@ -5514,16 +5312,16 @@
         <v>21</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="F141" s="1">
         <v>35.405054999999997</v>
@@ -5537,16 +5335,16 @@
         <v>22</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="F142" s="1">
         <v>35.405566</v>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="247">
   <si>
     <t>순번</t>
   </si>
@@ -620,10 +620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변경예정2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변경예정3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -921,6 +917,14 @@
   </si>
   <si>
     <t>2025. 06. 04. ~ 2025. 07. 31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1488,7 +1492,7 @@
         <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>101</v>
@@ -1520,16 +1524,16 @@
         <v>127.40940000000001</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1558,13 +1562,13 @@
         <v>103</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1616,13 +1620,13 @@
         <v>103</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1648,16 +1652,16 @@
         <v>127.4093</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1683,16 +1687,16 @@
         <v>127.40309999999999</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1721,7 +1725,7 @@
         <v>106</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>104</v>
@@ -1805,16 +1809,16 @@
         <v>127.4008</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1827,11 +1831,11 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>168</v>
+      <c r="D15" s="1">
+        <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="F15" s="1">
         <v>35.420900000000003</v>
@@ -1843,13 +1847,13 @@
         <v>106</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1862,11 +1866,11 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>169</v>
+      <c r="D16" s="1">
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="F16" s="1">
         <v>35.4208</v>
@@ -1885,11 +1889,11 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3">
-        <v>12</v>
+      <c r="D17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="F17" s="1">
         <v>35.418999999999997</v>
@@ -1908,11 +1912,11 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3">
-        <v>13</v>
+      <c r="D18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="F18" s="1">
         <v>35.418900000000001</v>
@@ -1924,7 +1928,7 @@
         <v>111</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>112</v>
@@ -2057,16 +2061,16 @@
         <v>127.3925</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2173,7 +2177,7 @@
         <v>100</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>101</v>
@@ -2205,16 +2209,16 @@
         <v>127.39230000000001</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2263,16 +2267,16 @@
         <v>127.39713</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2301,13 +2305,13 @@
         <v>103</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2336,7 +2340,7 @@
         <v>111</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>112</v>
@@ -2414,16 +2418,16 @@
         <v>127.39834999999999</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2452,7 +2456,7 @@
         <v>111</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>101</v>
@@ -2510,13 +2514,13 @@
         <v>103</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2545,13 +2549,13 @@
         <v>103</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2626,13 +2630,13 @@
         <v>103</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2661,7 +2665,7 @@
         <v>111</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>101</v>
@@ -2693,13 +2697,13 @@
         <v>127.3952</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>113</v>
@@ -2728,13 +2732,13 @@
         <v>127.38915</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>114</v>
@@ -2751,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="F46" s="1">
         <v>35.415550000000003</v>
@@ -2766,7 +2770,7 @@
         <v>100</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>112</v>
@@ -2786,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F47" s="1">
         <v>35.415399999999998</v>
@@ -2824,13 +2828,13 @@
         <v>103</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2879,16 +2883,16 @@
         <v>127.39117</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2914,16 +2918,16 @@
         <v>127.3907</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2952,13 +2956,13 @@
         <v>106</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3042,7 +3046,7 @@
         <v>100</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>101</v>
@@ -3100,13 +3104,13 @@
         <v>106</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="K57" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3143,10 +3147,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F59" s="1">
         <v>35.412730000000003</v>
@@ -3166,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="F60" s="1">
         <v>35.412500000000001</v>
@@ -3178,16 +3182,16 @@
         <v>127.38182</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3201,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F61" s="1">
         <v>35.412300000000002</v>
@@ -3213,16 +3217,16 @@
         <v>127.3815</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3236,10 +3240,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="F62" s="1">
         <v>35.4099</v>
@@ -3259,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F63" s="1">
         <v>35.409829999999999</v>
@@ -3271,16 +3275,16 @@
         <v>127.3827</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3306,16 +3310,16 @@
         <v>127.38659</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3341,16 +3345,16 @@
         <v>127.38655</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="J65" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3402,13 +3406,13 @@
         <v>106</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3489,13 +3493,13 @@
         <v>127.38621999999999</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="J70" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>115</v>
@@ -3559,7 +3563,7 @@
         <v>118</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>119</v>
@@ -3579,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F73" s="1">
         <v>35.403599999999997</v>
@@ -3591,13 +3595,13 @@
         <v>127.38679999999999</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -3614,10 +3618,10 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="F74" s="1">
         <v>35.403550000000003</v>
@@ -3626,16 +3630,16 @@
         <v>127.38685</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3661,7 +3665,7 @@
         <v>127.37652</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3690,13 +3694,13 @@
         <v>106</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="K76" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3710,10 +3714,10 @@
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F77" s="1">
         <v>35.401249999999997</v>
@@ -3733,10 +3737,10 @@
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="F78" s="1">
         <v>35.401299999999999</v>
@@ -3748,7 +3752,7 @@
         <v>100</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>112</v>
@@ -3814,10 +3818,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F81" s="1">
         <v>35.402200000000001</v>
@@ -3829,7 +3833,7 @@
         <v>100</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>112</v>
@@ -3849,10 +3853,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F82" s="1">
         <v>35.402149999999999</v>
@@ -3907,13 +3911,13 @@
         <v>127.38001</v>
       </c>
       <c r="H84" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>113</v>
@@ -3945,13 +3949,13 @@
         <v>103</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4104,13 +4108,13 @@
         <v>103</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -4136,16 +4140,16 @@
         <v>127.37161</v>
       </c>
       <c r="H92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="K92" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4171,16 +4175,16 @@
         <v>127.37151</v>
       </c>
       <c r="H93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -4255,13 +4259,13 @@
         <v>103</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4345,7 +4349,7 @@
         <v>111</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>101</v>
@@ -4400,16 +4404,16 @@
         <v>127.3738</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="K101" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -4461,7 +4465,7 @@
         <v>111</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>101</v>
@@ -4574,7 +4578,7 @@
         <v>111</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>101</v>
@@ -4606,16 +4610,16 @@
         <v>127.36620000000001</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -4652,10 +4656,10 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F110" s="1">
         <v>35.413400000000003</v>
@@ -4675,10 +4679,10 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F111" s="1">
         <v>35.413400000000003</v>
@@ -4768,7 +4772,7 @@
         <v>118</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>121</v>
@@ -4788,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F115" s="1">
         <v>35.404899999999998</v>
@@ -4800,13 +4804,13 @@
         <v>127.36278</v>
       </c>
       <c r="H115" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="J115" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>113</v>
@@ -4823,10 +4827,10 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F116" s="1">
         <v>35.404899999999998</v>
@@ -4838,7 +4842,7 @@
         <v>100</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>101</v>

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3037,10 +3037,10 @@
         <v>85</v>
       </c>
       <c r="F55" s="1">
-        <v>35.4163</v>
+        <v>35.416823999999998</v>
       </c>
       <c r="G55" s="1">
-        <v>127.38500000000001</v>
+        <v>127.385408</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>100</v>
@@ -3072,10 +3072,10 @@
         <v>86</v>
       </c>
       <c r="F56" s="1">
-        <v>35.4163</v>
+        <v>35.416823999999998</v>
       </c>
       <c r="G56" s="1">
-        <v>127.38500000000001</v>
+        <v>127.385408</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3014,10 +3014,10 @@
         <v>44</v>
       </c>
       <c r="F54" s="1">
-        <v>35.416699999999999</v>
+        <v>35.416941000000001</v>
       </c>
       <c r="G54" s="1">
-        <v>127.3847</v>
+        <v>127.385231</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">

--- a/관리목록.xlsx
+++ b/관리목록.xlsx
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3014,10 +3014,10 @@
         <v>44</v>
       </c>
       <c r="F54" s="1">
-        <v>35.416941000000001</v>
+        <v>35.416980000000002</v>
       </c>
       <c r="G54" s="1">
-        <v>127.385231</v>
+        <v>127.38525199999999</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3037,7 +3037,7 @@
         <v>85</v>
       </c>
       <c r="F55" s="1">
-        <v>35.416823999999998</v>
+        <v>35.416867000000003</v>
       </c>
       <c r="G55" s="1">
         <v>127.385408</v>
@@ -3072,7 +3072,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="1">
-        <v>35.416823999999998</v>
+        <v>35.416867000000003</v>
       </c>
       <c r="G56" s="1">
         <v>127.385408</v>
